--- a/UploadedFiles/TMACNTRTSHIPR.xlsx
+++ b/UploadedFiles/TMACNTRTSHIPR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\LogiApps\TestApplication\_SupportFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboard\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>as able</t>
   </si>
   <si>
-    <t>JFM 11.7 Av. Pro</t>
-  </si>
-  <si>
     <t>Jan, Feb, Mar longer description that would be better to read vs abbreviations</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Sometimes you may want to write more notes in this area than what apparent space is available on the screen in the Excel cell.</t>
+  </si>
+  <si>
+    <t>Updated Status notes for demo!</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>0.3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>0.3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>0.3</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>0.3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>2301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5">
         <v>7</v>
@@ -608,7 +608,7 @@
         <v>2301</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>0.3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,10 +658,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
       </c>
       <c r="G9" s="2">
         <v>0.3</v>

--- a/UploadedFiles/TMACNTRTSHIPR.xlsx
+++ b/UploadedFiles/TMACNTRTSHIPR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboard\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Updated Status notes for demo!</t>
+  </si>
+  <si>
+    <t>Things</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>Text that you type in here goes on the screen</t>
   </si>
 </sst>
 </file>
@@ -422,21 +434,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,9 +684,33 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="1">
+        <v>24483</v>
+      </c>
+      <c r="B10">
+        <v>589012.04</v>
+      </c>
+      <c r="C10" s="1">
+        <v>456</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
@@ -743,5 +780,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UploadedFiles/TMACNTRTSHIPR.xlsx
+++ b/UploadedFiles/TMACNTRTSHIPR.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="8025"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -62,43 +57,10 @@
     <t>as able</t>
   </si>
   <si>
-    <t>Jan, Feb, Mar longer description that would be better to read vs abbreviations</t>
-  </si>
-  <si>
-    <t>J/J 15</t>
-  </si>
-  <si>
-    <t>by 1/15/16</t>
-  </si>
-  <si>
-    <t>Shipper 1</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>Sometimes you may want to write more notes in this area than what apparent space is available on the screen in the Excel cell.</t>
-  </si>
-  <si>
     <t>Updated Status notes for demo!</t>
   </si>
   <si>
-    <t>Things</t>
-  </si>
-  <si>
-    <t>Stuff</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>Text that you type in here goes on the screen</t>
+    <t>Jan, Feb, Mar longer description that would be better to read vs abbreviations so spell thiings out to avoid confusion now that you have room.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -507,10 +469,10 @@
         <v>0.3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -536,189 +498,44 @@
         <v>0.3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>21626</v>
-      </c>
-      <c r="B4" s="2">
-        <v>288000.09000000003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6201</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>21626</v>
-      </c>
-      <c r="B5" s="2">
-        <v>332800</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6201</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5591</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4872.01</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2301</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5591</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4872.01</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2301</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5591</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4872.01</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2301</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="G8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5591</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4872.01</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2301</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>24483</v>
-      </c>
-      <c r="B10">
-        <v>589012.04</v>
-      </c>
-      <c r="C10" s="1">
-        <v>456</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -749,34 +566,6 @@
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
